--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -21,7 +21,7 @@
     <t>bins</t>
   </si>
   <si>
-    <t>Change 1</t>
+    <t>Change 2</t>
   </si>
 </sst>
 </file>
@@ -377,7 +377,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
